--- a/Trent.xlsx
+++ b/Trent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Financials&gt;" sheetId="10" r:id="rId1"/>
@@ -4695,7 +4695,7 @@
   </sheetPr>
   <dimension ref="A2:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -8841,42 +8841,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>RatioAnalysis!D5:L5</xm:f>
-              <xm:sqref>M5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>RatioAnalysis!D6:L6</xm:f>
-              <xm:sqref>M6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>RatioAnalysis!D7:L7</xm:f>
-              <xm:sqref>M7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>RatioAnalysis!D8:L8</xm:f>
-              <xm:sqref>M8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>RatioAnalysis!D9:L9</xm:f>
-              <xm:sqref>M9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>RatioAnalysis!D10:L10</xm:f>
-              <xm:sqref>M10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -9009,6 +8973,42 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>RatioAnalysis!D5:L5</xm:f>
+              <xm:sqref>M5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>RatioAnalysis!D6:L6</xm:f>
+              <xm:sqref>M6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>RatioAnalysis!D7:L7</xm:f>
+              <xm:sqref>M7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>RatioAnalysis!D8:L8</xm:f>
+              <xm:sqref>M8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>RatioAnalysis!D9:L9</xm:f>
+              <xm:sqref>M9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>RatioAnalysis!D10:L10</xm:f>
+              <xm:sqref>M10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -9022,8 +9022,8 @@
   </sheetPr>
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
